--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SES Times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D32FE-1832-416E-82AA-150788C96BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -523,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,6 +1022,9 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>JOJO</t>
   </si>
 </sst>
 </file>
@@ -1913,6 +1905,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1921,15 +1922,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3069,25 +3061,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
@@ -3102,10 +3096,10 @@
       <c r="L2" s="105"/>
       <c r="M2" s="105"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3113,7 +3107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3174,7 +3168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3182,7 +3176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3214,7 +3208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3222,7 +3216,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3254,7 +3248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3309,9 +3303,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3330,9 +3329,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3351,7 +3350,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3366,23 +3365,23 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +3394,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3409,7 +3408,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3424,7 +3423,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>137</v>
@@ -3455,7 +3454,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3486,7 +3485,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3509,7 +3508,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="49" t="s">
         <v>15</v>
@@ -3532,7 +3531,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="61" t="s">
         <v>15</v>
@@ -3557,7 +3556,7 @@
       </c>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -3570,66 +3569,66 @@
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="109" t="s">
+    <row r="14" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="108"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="111"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="110"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="111"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3654,26 +3653,26 @@
       <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3686,7 +3685,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>21</v>
@@ -3701,7 +3700,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -3732,7 +3731,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>31</v>
@@ -3763,7 +3762,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>67</v>
@@ -3778,7 +3777,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>61</v>
@@ -3801,7 +3800,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
         <v>40</v>
@@ -3826,7 +3825,7 @@
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
       <c r="C11" s="45" t="s">
         <v>68</v>
@@ -3841,7 +3840,7 @@
       <c r="K11" s="46"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
       <c r="C12" s="47" t="s">
         <v>41</v>
@@ -3866,7 +3865,7 @@
       <c r="K12" s="48"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29"/>
       <c r="C13" s="51" t="s">
         <v>41</v>
@@ -3891,7 +3890,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -3904,14 +3903,14 @@
       <c r="K14" s="31"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="109" t="s">
+    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+    </row>
+    <row r="18" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="24" t="s">
         <v>169</v>
       </c>
@@ -3920,7 +3919,7 @@
       </c>
       <c r="E18" s="114"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="104" t="s">
         <v>150</v>
       </c>
@@ -3929,7 +3928,7 @@
       </c>
       <c r="E19" s="117"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="101" t="s">
         <v>156</v>
       </c>
@@ -3938,7 +3937,7 @@
       </c>
       <c r="E20" s="115"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="100" t="s">
         <v>154</v>
       </c>
@@ -3947,7 +3946,7 @@
       </c>
       <c r="E21" s="116"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="101" t="s">
         <v>153</v>
       </c>
@@ -3956,7 +3955,7 @@
       </c>
       <c r="E22" s="115"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="100" t="s">
         <v>152</v>
       </c>
@@ -3965,7 +3964,7 @@
       </c>
       <c r="E23" s="116"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="101" t="s">
         <v>159</v>
       </c>
@@ -3974,7 +3973,7 @@
       </c>
       <c r="E24" s="115"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="100" t="s">
         <v>155</v>
       </c>
@@ -3983,7 +3982,7 @@
       </c>
       <c r="E25" s="116"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="101" t="s">
         <v>151</v>
       </c>
@@ -3992,7 +3991,7 @@
       </c>
       <c r="E26" s="115"/>
     </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="102" t="s">
         <v>157</v>
       </c>
@@ -4028,27 +4027,27 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4057,7 +4056,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4068,7 +4067,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4087,7 +4086,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4106,7 +4105,7 @@
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
         <v>52</v>
@@ -4121,7 +4120,7 @@
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
@@ -4141,7 +4140,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
         <f>FI_Process!E10</f>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -4185,26 +4184,26 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4212,10 +4211,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4229,7 +4228,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4245,7 +4244,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4282,7 +4281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4322,7 +4321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="80" t="s">
         <v>52</v>
@@ -4356,7 +4355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E12</f>
@@ -4402,7 +4401,7 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
         <f>FI_Process!E13</f>
@@ -4448,7 +4447,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -4466,33 +4465,33 @@
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4504,37 +4503,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="90" t="s">
         <v>43</v>
@@ -4543,7 +4542,7 @@
       <c r="E5" s="91"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="88" t="s">
         <v>2</v>
@@ -4556,7 +4555,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="92" t="s">
         <v>121</v>
@@ -4569,7 +4568,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="95" t="s">
         <v>52</v>
@@ -4580,7 +4579,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="82" t="str">
         <f>FI_Comm!E10</f>
@@ -4594,7 +4593,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4802,15 +4801,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -4819,6 +4809,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4841,14 +4840,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4857,4 +4848,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SES Times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D32FE-1832-416E-82AA-150788C96BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F499A477-9B0D-494E-89F3-C057E2103255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1025,6 +1025,24 @@
   </si>
   <si>
     <t>JOJO</t>
+  </si>
+  <si>
+    <t>IMP_BIOMASS</t>
+  </si>
+  <si>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>Import Biomass</t>
+  </si>
+  <si>
+    <t>EX_PP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Power Plant - Biomass</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1734,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1941,6 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
@@ -2060,7 +2079,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2271,7 +2290,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3063,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3359,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,89 +3575,110 @@
       </c>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="106" t="s">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="103" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D16" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="100" t="s">
+      <c r="E16" s="108"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D17" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="111"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="111"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D18" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="110"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="100" t="s">
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D19" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="111"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="111"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D20" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D21" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E21" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3647,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3827,192 +3867,240 @@
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
+      <c r="C11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F14" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G14" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="106" t="s">
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+    </row>
+    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D20" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="114"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="104" t="s">
+      <c r="E20" s="114"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D21" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="116"/>
+      <c r="E21" s="117"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="101" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E22" s="115"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="100" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D23" s="116" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E23" s="116"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="101" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E24" s="115"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D25" s="116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" s="116"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="115"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="116"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D28" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="115"/>
-    </row>
-    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="102" t="s">
+      <c r="E28" s="115"/>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D29" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E29" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4021,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,14 +4248,34 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="23" t="str">
+        <f>FI_Process!E11</f>
+        <v>IMP_BIOMASS</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F11</f>
+        <v>Import Biomass</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75">
+        <v>20</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4178,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,11 +4466,11 @@
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4404,11 +4512,11 @@
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
       <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
       <c r="E10" s="75" t="str">
@@ -4447,51 +4555,91 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="99">
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="75" t="str">
+        <f>FI_Process!E15</f>
+        <v>EX_PP_BIOMASS</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F15</f>
+        <v>Power Plant - Biomass</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F11" s="75" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G11" s="75">
+        <v>2</v>
+      </c>
+      <c r="H11" s="75">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1</v>
+      </c>
+      <c r="L11" s="76">
+        <v>1</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="99">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
